--- a/H3/CorporateBondPortfolioData.xlsx
+++ b/H3/CorporateBondPortfolioData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e0593d8a70af55a/Desktop/Teaching/CFRM541 QRM/QRM_Git/QRM/H3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6806BFEF-D3AA-4D1C-9AF6-B660CF86F574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93ED3FD0-6C11-4574-81A9-A356B3868C42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649BD3B4-56C2-44A8-8057-A13865063860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8E3751-AD64-499B-B053-3C118D2D11D7}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32030484-C083-40AF-9F56-9E6A1B584D62}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1274,7 +1274,6 @@
         <v>1</v>
       </c>
       <c r="C40" s="11">
-        <f>VLOOKUP(H40,$J$40:$K$47,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D40" s="5">
@@ -1304,7 +1303,6 @@
         <v>2</v>
       </c>
       <c r="C41" s="11">
-        <f t="shared" ref="C41:C59" si="0">VLOOKUP(H41,$J$40:$K$47,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D41" s="5">
@@ -1334,7 +1332,6 @@
         <v>3</v>
       </c>
       <c r="C42" s="11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D42" s="5">
@@ -1364,7 +1361,6 @@
         <v>4</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D43" s="5">
@@ -1394,7 +1390,6 @@
         <v>5</v>
       </c>
       <c r="C44" s="11">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D44" s="5">
@@ -1424,7 +1419,6 @@
         <v>6</v>
       </c>
       <c r="C45" s="11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D45" s="5">
@@ -1454,7 +1448,6 @@
         <v>7</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D46" s="5">
@@ -1484,7 +1477,6 @@
         <v>8</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D47" s="5">
@@ -1514,7 +1506,6 @@
         <v>9</v>
       </c>
       <c r="C48" s="11">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D48" s="5">
@@ -1538,7 +1529,6 @@
         <v>10</v>
       </c>
       <c r="C49" s="11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D49" s="5">
@@ -1562,7 +1552,6 @@
         <v>11</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D50" s="5">
@@ -1586,7 +1575,6 @@
         <v>12</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D51" s="5">
@@ -1610,7 +1598,6 @@
         <v>13</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D52" s="5">
@@ -1634,7 +1621,6 @@
         <v>14</v>
       </c>
       <c r="C53" s="11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D53" s="5">
@@ -1658,7 +1644,6 @@
         <v>15</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D54" s="5">
@@ -1682,7 +1667,6 @@
         <v>16</v>
       </c>
       <c r="C55" s="11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D55" s="5">
@@ -1706,7 +1690,6 @@
         <v>17</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D56" s="5">
@@ -1730,7 +1713,6 @@
         <v>18</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D57" s="5">
@@ -1754,7 +1736,6 @@
         <v>19</v>
       </c>
       <c r="C58" s="11">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="5">
@@ -1778,7 +1759,6 @@
         <v>20</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D59" s="5">
